--- a/iptabalazat.xlsx
+++ b/iptabalazat.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Portok + IP" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="VLAN" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t xml:space="preserve">Routerek</t>
   </si>
@@ -79,6 +80,12 @@
     <t xml:space="preserve">G3/1; G9/1</t>
   </si>
   <si>
+    <t xml:space="preserve">S0/2/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.70.1/30</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.</t>
   </si>
   <si>
@@ -130,6 +137,15 @@
     <t xml:space="preserve">SW3</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja_VPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.50.2/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.60.1/30</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.</t>
   </si>
   <si>
@@ -139,6 +155,9 @@
     <t xml:space="preserve">G0/0(internet)</t>
   </si>
   <si>
+    <t xml:space="preserve">30.30.60.2/30</t>
+  </si>
+  <si>
     <t xml:space="preserve">G5/1-6/1</t>
   </si>
   <si>
@@ -178,7 +197,7 @@
     <t xml:space="preserve">G2/1-3/1; G9/1</t>
   </si>
   <si>
-    <t xml:space="preserve">ISP Szeged</t>
+    <t xml:space="preserve">ISP Szeged_I</t>
   </si>
   <si>
     <t xml:space="preserve">30.30.20.2/30</t>
@@ -190,7 +209,19 @@
     <t xml:space="preserve">G9/1; G4/1</t>
   </si>
   <si>
-    <t xml:space="preserve">30.30.60.1/30</t>
+    <t xml:space="preserve">ISP Szeged_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.80.1/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISP Szeged_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.70.2/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.90.1/30</t>
   </si>
   <si>
     <t xml:space="preserve">G2/1-3/1; G7/1</t>
@@ -199,43 +230,121 @@
     <t xml:space="preserve">6.</t>
   </si>
   <si>
-    <t xml:space="preserve">Telep Szeged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.30.60.2/30</t>
+    <t xml:space="preserve">Telep Szeged_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.80.2/30</t>
   </si>
   <si>
     <t xml:space="preserve">172.16.2.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Telep Szeged_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.90.2/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.3.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISP  Pest</t>
   </si>
   <si>
     <t xml:space="preserve">30.30.30.2/30</t>
   </si>
   <si>
-    <t xml:space="preserve">S0/2/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.30.70.1/30</t>
+    <t xml:space="preserve">Egéb eszközök:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.100.1/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.110.1/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tűzfal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telep Buda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.110.2/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G9/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.6.10</t>
   </si>
   <si>
     <t xml:space="preserve">Telep Pest</t>
   </si>
   <si>
-    <t xml:space="preserve">172.16.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G0/1/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.16.4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G0/1/1</t>
+    <t xml:space="preserve">G0/2/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.100.2/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G8/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.7.10</t>
   </si>
   <si>
     <t xml:space="preserve">172.16.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Száma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mennyiség</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLAN 343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vezetőség</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLAN 342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adminisztrácó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLAN 341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendszergazda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 – 3</t>
   </si>
 </sst>
 </file>
@@ -245,11 +354,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -265,6 +375,37 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -339,41 +480,89 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -559,10 +748,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -699,54 +888,47 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="J6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
@@ -755,27 +937,25 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="J8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="J8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="8"/>
       <c r="L8" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
@@ -784,81 +964,81 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="J9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="J9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="J10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="6"/>
+      <c r="J10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="8"/>
       <c r="L10" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="J11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="6"/>
+      <c r="J11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="9"/>
       <c r="L11" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
@@ -867,79 +1047,69 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="J12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="4"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="J13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="4"/>
+      <c r="F13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="J14" s="7" t="s">
+      <c r="F14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="J14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
@@ -948,53 +1118,52 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="J15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="7"/>
+      <c r="J15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="9"/>
       <c r="L15" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="J16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="8"/>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="J16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="13"/>
       <c r="L16" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
@@ -1004,148 +1173,173 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="J17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="8"/>
+      <c r="J17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="13"/>
       <c r="L17" s="4" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="O17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="J18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="2"/>
+      <c r="J19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="15"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="16"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="O21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="1"/>
+      <c r="J22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="N22" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="O22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1154,85 +1348,302 @@
       <c r="O23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="5"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="O24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="J27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="J30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="J32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="169">
+  <mergeCells count="200">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="A2:A4"/>
@@ -1260,26 +1671,23 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -1292,7 +1700,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -1302,29 +1709,22 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -1337,7 +1737,7 @@
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A18:A23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
@@ -1353,15 +1753,9 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
@@ -1377,31 +1771,79 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="N25:O25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J27:O27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1411,4 +1853,107 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/iptabalazat.xlsx
+++ b/iptabalazat.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="112">
   <si>
     <t xml:space="preserve">Routerek</t>
   </si>
@@ -29,9 +29,6 @@
     <t xml:space="preserve">SW</t>
   </si>
   <si>
-    <t xml:space="preserve">1.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eszköznév</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
     <t xml:space="preserve">SW3</t>
   </si>
   <si>
+    <t xml:space="preserve">4.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja_VPN</t>
   </si>
   <si>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">30.30.60.1/30</t>
   </si>
   <si>
-    <t xml:space="preserve">4.</t>
+    <t xml:space="preserve">5.</t>
   </si>
   <si>
     <t xml:space="preserve">Wireless Router</t>
@@ -185,9 +185,6 @@
     <t xml:space="preserve">192.168.250.4</t>
   </si>
   <si>
-    <t xml:space="preserve">5.</t>
-  </si>
-  <si>
     <t xml:space="preserve">W4</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t xml:space="preserve">G9/1; G4/1</t>
   </si>
   <si>
-    <t xml:space="preserve">ISP Szeged_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">30.30.80.1/30</t>
   </si>
   <si>
@@ -287,34 +281,52 @@
     <t xml:space="preserve">172.16.4.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Linux server</t>
+    <t xml:space="preserve">Linux server(Pest)</t>
   </si>
   <si>
     <t xml:space="preserve">G9/1</t>
   </si>
   <si>
+    <t xml:space="preserve">172.16.7.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telep Pest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G0/2/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.30.100.2/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows server(Pest)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G8/1</t>
+  </si>
+  <si>
     <t xml:space="preserve">172.16.6.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Telep Pest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G0/2/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.30.100.2/30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G8/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.16.7.10</t>
-  </si>
-  <si>
     <t xml:space="preserve">172.16.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHCP_Szerver(Baja)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1/1/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.255.255.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTP_Szerver(Baja)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1/1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0.0.127</t>
   </si>
   <si>
     <t xml:space="preserve">Száma</t>
@@ -354,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -377,22 +389,16 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -480,7 +486,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -501,38 +507,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -541,28 +543,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -751,7 +753,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -779,314 +781,318 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1"/>
       <c r="J4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1"/>
       <c r="J5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="1"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1"/>
       <c r="J7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="J8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="J8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="J9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="J9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="J10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="J10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="J11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="J11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="11"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="6"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
@@ -1100,20 +1106,20 @@
         <v>43</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="J14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="9"/>
+      <c r="G14" s="1"/>
+      <c r="J14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="8"/>
       <c r="L14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O14" s="4"/>
     </row>
@@ -1131,16 +1137,16 @@
         <v>47</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="J15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="9"/>
+      <c r="J15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="8"/>
       <c r="L15" s="4" t="s">
         <v>48</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O15" s="4"/>
     </row>
@@ -1158,16 +1164,16 @@
         <v>50</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="13"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O16" s="4"/>
     </row>
@@ -1185,161 +1191,159 @@
         <v>53</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="13"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="J18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="J18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="J19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="J19" s="14" t="s">
+      <c r="K19" s="13"/>
+      <c r="L19" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="15"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="16"/>
+      <c r="H20" s="6"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="7"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="17"/>
+      <c r="B21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="16"/>
+      <c r="F21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="7"/>
+      <c r="O21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="17"/>
+      <c r="B22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="11"/>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="J22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="14"/>
+      <c r="J22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="13"/>
       <c r="L22" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="5"/>
+      <c r="F23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="1"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1350,57 +1354,57 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="5"/>
+      <c r="F24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="1"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="7"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="7"/>
+      <c r="O24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="5"/>
+      <c r="F25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="1"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G26" s="1"/>
       <c r="J26" s="4"/>
@@ -1412,173 +1416,177 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="J27" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="J27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="5"/>
+      <c r="F30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M30" s="1"/>
-      <c r="N30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O30" s="5"/>
+      <c r="N30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M31" s="1"/>
-      <c r="N31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O31" s="5"/>
+      <c r="N31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="J32" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="J32" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M32" s="1"/>
-      <c r="N32" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O32" s="5"/>
+      <c r="N32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
@@ -1587,12 +1595,18 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="F34" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="J34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M34" s="1"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
@@ -1601,8 +1615,10 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="15"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="N35" s="4"/>
@@ -1646,7 +1662,7 @@
   <mergeCells count="200">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -1706,13 +1722,14 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
@@ -1737,7 +1754,6 @@
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="A18:A23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
@@ -1849,8 +1865,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Általános"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Általános"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1860,7 +1876,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
@@ -1869,68 +1885,72 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="18"/>
+      <c r="A1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="n">
+      <c r="A3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19" t="n">
+      <c r="A4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="19"/>
+      <c r="A5" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1952,8 +1972,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Általános"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Általános"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/iptabalazat.xlsx
+++ b/iptabalazat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Portok + IP" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="134">
   <si>
     <t xml:space="preserve">Routerek</t>
   </si>
@@ -357,6 +357,72 @@
   </si>
   <si>
     <t xml:space="preserve">1 – 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hálózatcímtartomány</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Használható IP-k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.43.0/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.43.1 - 172.16.43.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.42.0/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.42.1 - 172.16.42.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.41.0/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.41.1 - 172.16.41.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telep Szeged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.83.0/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.83.1 – 172.16.83.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.82.0/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.82.1 – 172.16.82.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.81.0/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.81.1 – 172.16.81.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.123.0/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.123.1 – 172.16.123.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.122.0/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.122.1 – 172.16.122.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.121.0/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.121.1 – 172.16.121.126</t>
   </si>
 </sst>
 </file>
@@ -399,6 +465,7 @@
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -486,7 +553,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -523,10 +590,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -547,6 +610,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -563,8 +630,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -752,7 +827,7 @@
   </sheetPr>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -1051,7 +1126,7 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1067,14 +1142,14 @@
       </c>
       <c r="G12" s="1"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="4"/>
       <c r="M12" s="6"/>
       <c r="N12" s="4"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1083,12 +1158,12 @@
         <v>30</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="10"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="4"/>
       <c r="M13" s="6"/>
       <c r="N13" s="4"/>
@@ -1164,10 +1239,10 @@
         <v>50</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="4" t="s">
         <v>45</v>
       </c>
@@ -1191,10 +1266,10 @@
         <v>53</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="12"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1218,10 +1293,10 @@
         <v>55</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="12"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="4" t="s">
         <v>56</v>
       </c>
@@ -1245,10 +1320,10 @@
         <v>58</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="4" t="s">
         <v>60</v>
       </c>
@@ -1273,8 +1348,8 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="6"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="4"/>
       <c r="M20" s="6"/>
       <c r="N20" s="4"/>
@@ -1282,10 +1357,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1294,8 +1369,8 @@
         <v>63</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="4"/>
       <c r="M21" s="6"/>
       <c r="N21" s="4"/>
@@ -1303,10 +1378,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,10 +1390,10 @@
         <v>64</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="13"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="4" t="s">
         <v>65</v>
       </c>
@@ -1394,7 +1469,7 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="1" t="s">
         <v>70</v>
       </c>
@@ -1427,14 +1502,14 @@
         <v>74</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
@@ -1876,13 +1951,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.32"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -1951,6 +2030,158 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/iptabalazat.xlsx
+++ b/iptabalazat.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="141">
   <si>
     <t xml:space="preserve">Routerek</t>
   </si>
@@ -386,6 +386,15 @@
     <t xml:space="preserve">172.16.41.1 - 172.16.41.126</t>
   </si>
   <si>
+    <t xml:space="preserve">VLAN 999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.49.0/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.49.1 – 172.16.49.126</t>
+  </si>
+  <si>
     <t xml:space="preserve">Telep Szeged</t>
   </si>
   <si>
@@ -407,6 +416,12 @@
     <t xml:space="preserve">172.16.81.1 – 172.16.81.126</t>
   </si>
   <si>
+    <t xml:space="preserve">172.16.89.0/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.89.1 – 172.16.89.126</t>
+  </si>
+  <si>
     <t xml:space="preserve">172.16.123.0/25</t>
   </si>
   <si>
@@ -423,6 +438,12 @@
   </si>
   <si>
     <t xml:space="preserve">172.16.121.1 – 172.16.121.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.129.0/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.129.1 – 172.16.129.126</t>
   </si>
 </sst>
 </file>
@@ -553,7 +574,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -618,6 +639,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -634,12 +659,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -828,7 +857,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1670,10 +1699,10 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="15" t="s">
+      <c r="H34" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="1" t="s">
         <v>99</v>
       </c>
@@ -1690,10 +1719,10 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="15"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="N35" s="4"/>
@@ -1913,13 +1942,13 @@
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="B36:C36"/>
@@ -1951,236 +1980,272 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="30.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="n">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="n">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>127</v>
+      <c r="B20" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
+      <c r="B26" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>133</v>
+      <c r="B27" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/iptabalazat.xlsx
+++ b/iptabalazat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oroszlanmihaly\Documents\GitHub\KalaposNet.kft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B097D-57A9-406C-B580-AD7825BF6B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21172A10-8973-4EC0-A001-4405C75FCA11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,29 +541,6 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,6 +567,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,1083 +795,907 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="13"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="J3" s="11" t="s">
+      <c r="G3" s="18"/>
+      <c r="J3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="18"/>
+      <c r="J4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="J5" s="11" t="s">
+      <c r="G5" s="18"/>
+      <c r="J5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10" t="s">
+      <c r="K5" s="25"/>
+      <c r="L5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="10"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="18"/>
+      <c r="J7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="10" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10" t="s">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="10"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="J8" s="9" t="s">
+      <c r="G8" s="18"/>
+      <c r="J8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10" t="s">
+      <c r="M8" s="16"/>
+      <c r="N8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="10"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="J9" s="9" t="s">
+      <c r="G9" s="18"/>
+      <c r="J9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="10"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="J10" s="9" t="s">
+      <c r="G10" s="18"/>
+      <c r="J10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10" t="s">
+      <c r="K10" s="24"/>
+      <c r="L10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10" t="s">
+      <c r="M10" s="16"/>
+      <c r="N10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="10"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="J11" s="8" t="s">
+      <c r="G11" s="18"/>
+      <c r="J11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="10" t="s">
+      <c r="K11" s="23"/>
+      <c r="L11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10" t="s">
+      <c r="M11" s="16"/>
+      <c r="N11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="10"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="J14" s="8" t="s">
+      <c r="G14" s="18"/>
+      <c r="J14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="10" t="s">
+      <c r="K14" s="23"/>
+      <c r="L14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="10"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="J15" s="8" t="s">
+      <c r="G15" s="18"/>
+      <c r="J15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="10" t="s">
+      <c r="K15" s="23"/>
+      <c r="L15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10" t="s">
+      <c r="M15" s="16"/>
+      <c r="N15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="10"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="J16" s="6" t="s">
+      <c r="G16" s="18"/>
+      <c r="J16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="10" t="s">
+      <c r="K16" s="21"/>
+      <c r="L16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="10"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="J17" s="6" t="s">
+      <c r="G17" s="18"/>
+      <c r="J17" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="10" t="s">
+      <c r="K17" s="21"/>
+      <c r="L17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10" t="s">
+      <c r="M17" s="16"/>
+      <c r="N17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="10"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="J18" s="6" t="s">
+      <c r="G18" s="18"/>
+      <c r="J18" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="10" t="s">
+      <c r="K18" s="21"/>
+      <c r="L18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10" t="s">
+      <c r="M18" s="16"/>
+      <c r="N18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="10"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="J19" s="5" t="s">
+      <c r="G19" s="22"/>
+      <c r="J19" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="10" t="s">
+      <c r="K19" s="20"/>
+      <c r="L19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10" t="s">
+      <c r="M19" s="16"/>
+      <c r="N19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="10"/>
+      <c r="O19" s="16"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="18"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="5"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="J22" s="5" t="s">
+      <c r="G22" s="18"/>
+      <c r="J22" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="10" t="s">
+      <c r="K22" s="20"/>
+      <c r="L22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10" t="s">
+      <c r="M22" s="16"/>
+      <c r="N22" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="10"/>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="G23" s="18"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+      <c r="G26" s="18"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="J27" s="7" t="s">
+      <c r="G27" s="18"/>
+      <c r="J27" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="J28" s="13" t="s">
+      <c r="G28" s="18"/>
+      <c r="J28" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13" t="s">
+      <c r="K28" s="18"/>
+      <c r="L28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13" t="s">
+      <c r="M28" s="18"/>
+      <c r="N28" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="O28" s="13"/>
+      <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="J29" s="13" t="s">
+      <c r="G29" s="18"/>
+      <c r="J29" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13" t="s">
+      <c r="K29" s="18"/>
+      <c r="L29" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13" t="s">
+      <c r="M29" s="18"/>
+      <c r="N29" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="O29" s="13"/>
+      <c r="O29" s="18"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="18"/>
+      <c r="F30" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="J30" s="13" t="s">
+      <c r="G30" s="18"/>
+      <c r="J30" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13" t="s">
+      <c r="K30" s="18"/>
+      <c r="L30" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13" t="s">
+      <c r="M30" s="18"/>
+      <c r="N30" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="O30" s="13"/>
+      <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="J31" s="13" t="s">
+      <c r="G31" s="18"/>
+      <c r="J31" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13" t="s">
+      <c r="K31" s="18"/>
+      <c r="L31" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13" t="s">
+      <c r="M31" s="18"/>
+      <c r="N31" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="O31" s="13"/>
+      <c r="O31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="18"/>
+      <c r="F32" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="J32" s="13" t="s">
+      <c r="G32" s="18"/>
+      <c r="J32" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13" t="s">
+      <c r="K32" s="18"/>
+      <c r="L32" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13" t="s">
+      <c r="M32" s="18"/>
+      <c r="N32" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="O32" s="13"/>
+      <c r="O32" s="18"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="J33" s="13" t="s">
+      <c r="G33" s="18"/>
+      <c r="J33" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13" t="s">
+      <c r="K33" s="18"/>
+      <c r="L33" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="H34" s="4" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="H34" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="13" t="s">
+      <c r="I34" s="17"/>
+      <c r="J34" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13" t="s">
+      <c r="K34" s="18"/>
+      <c r="L34" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="H35" s="4" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="H35" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="200">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="A2:A6"/>
@@ -1896,6 +1720,182 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -1916,195 +1916,195 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27">
         <v>8</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2117,67 +2117,73 @@
       <c r="C22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="14" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
@@ -2185,12 +2191,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
